--- a/本地play_UI _easySoftWare/test_cases/软件市场UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/软件市场UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="16575"/>
+    <workbookView windowWidth="22275" windowHeight="15975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -85,7 +85,8 @@
   </si>
   <si>
     <t>进入生产环境
-主页资源下载(openEuler-24.03-LTS)</t>
+主页资源下载(openEuler-24.03-LTS)
+主页资源下载(openEuler-23.09)</t>
   </si>
   <si>
     <t>软件中心-主页-openEuler社区版本-点击跳转验证-1</t>
@@ -114,7 +115,8 @@
 领域应用页面查询结果排序(综合排序)
 领域应用页面查询结果分页(24条/页)
 领域应用页面查询结果切页(2)
-领域应用页面查询结果详情(b)</t>
+领域应用页面查询结果详情(b)
+软件包详情页面下载</t>
   </si>
   <si>
     <t>软件中心-RPM-搜索和下载</t>
@@ -128,7 +130,8 @@
 RPM页面查询结果排序(综合排序)
 RPM页面查询结果分页(20条/页)
 RPM页面查询结果切页(4)
-RPM页面查询结果详情(b)</t>
+RPM页面查询结果详情(b)
+软件包详情页面下载</t>
   </si>
   <si>
     <t>软件中心-应用镜像-搜索和复制</t>
@@ -142,7 +145,22 @@
 应用镜像页面查询结果排序(综合排序)
 应用镜像页面查询结果分页(10条/页)
 应用镜像页面查询结果切页(2)
-应用镜像页面查询结果详情(l)</t>
+应用镜像页面查询结果详情(l)
+软件包详情页面复制镜像</t>
+  </si>
+  <si>
+    <t>软件中心-上游兼容应用全景-搜索</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页登录(18048976612,675912zl.@)
+进入上游兼容应用全景
+上游兼容应用全景页面选择版本架构(openEuler-24.03-LTS,RPM,MISSING|OUTDATED|OK)
+上游兼容应用全景页面搜索(b)
+上游兼容应用全景页面查询结果排序(按首字母)
+上游兼容应用全景页面查询结果排序(综合排序)
+上游兼容应用全景页面查询结果分页(20条/页)
+上游兼容应用全景页面查询结果切页(2)</t>
   </si>
   <si>
     <t>软件中心-OEPKG-搜索和下载</t>
@@ -156,7 +174,8 @@
 OEPKG页面查询结果排序(综合排序)
 OEPKG页面查询结果分页(40条/页)
 OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(m)</t>
+OEPKG页面查询结果详情(m)
+软件包详情页面下载</t>
   </si>
   <si>
     <t>软件中心-软件包详情-快速反馈</t>
@@ -227,7 +246,11 @@
 进入协作平台
 协作平台反馈(Bear,测试反馈内容)
 进入待办中心
-审批通过(Bear,测试通过申请)</t>
+审批通过(Bear,测试通过申请)
+进入生产环境
+进入协作平台
+进入待办中心
+撤销申请(Bear)</t>
   </si>
   <si>
     <t>软件中心-协作平台-审批不通过</t>
@@ -239,6 +262,10 @@
 协作平台反馈(Bear,测试反馈内容)
 进入待办中心
 审批不通过(Bear,测试不通过申请)
+进入生产环境
+进入协作平台
+进入待办中心
+撤销申请(Bear)
 </t>
   </si>
   <si>
@@ -1232,50 +1259,6 @@
 删除机密变量
 删除当前空间
 退出登录</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入领域应用
-领域应用页面选择版本架构和领域(openEuler-22.03-LTS,x86_64,AI|云服务|大数据)
-领域应用页面搜索(b)
-领域应用页面查询结果排序(按首字母)
-领域应用页面查询结果排序(综合排序)
-领域应用页面查询结果分页(24条/页)
-领域应用页面查询结果切页(2)
-领域应用页面查询结果详情(libnetwork/x86_64)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入RPM页面
-RPM页面选择版本架构和领域(openEuler-23.09,x86_64,AI|其他)
-RPM页面搜索(b)
-RPM页面查询结果排序(按首字母)
-RPM页面查询结果排序(综合排序)
-RPM页面查询结果分页(20条/页)
-RPM页面查询结果切页(4)
-RPM页面查询结果详情(gromacs-libs)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入应用镜像页面
-应用镜像页面选择版本架构和领域(openEuler-22.03-LTS-SP3,x86_64|aarch64,AI|其他|云服务|数据库)
-应用镜像页面搜索(l)
-应用镜像页面查询结果排序(按首字母)
-应用镜像页面查询结果排序(综合排序)
-应用镜像页面查询结果分页(10条/页)
-应用镜像页面查询结果切页(2)
-应用镜像页面查询结果详情(mlflow)</t>
-  </si>
-  <si>
-    <t>进入生产环境
-进入OEPKG页面
-OEPKG页面选择版本架构和领域(openEuler-24.03-LTS,x86_64,其他)
-OEPKG页面搜索(m)
-OEPKG页面查询结果排序(按首字母)
-OEPKG页面查询结果排序(综合排序)
-OEPKG页面查询结果分页(40条/页)
-OEPKG页面查询结果切页(6)
-OEPKG页面查询结果详情(admesh)</t>
   </si>
 </sst>
 </file>
@@ -1917,19 +1900,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2249,201 +2232,209 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="74.775" style="1" customWidth="1"/>
-    <col min="2" max="2" width="128.891666666667" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="41.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="128.891666666667" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="131" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="4" customFormat="1" ht="131" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="172" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="4" customFormat="1" ht="172" customHeight="1" spans="1:2">
+      <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="145" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" s="4" customFormat="1" ht="145" customHeight="1" spans="1:2">
+      <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="162" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+    <row r="11" s="4" customFormat="1" ht="162" customHeight="1" spans="1:2">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="176" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
+    <row r="12" s="4" customFormat="1" ht="172" customHeight="1" spans="1:2">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="192" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" s="4" customFormat="1" ht="176" customHeight="1" spans="1:2">
+      <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="210" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
+    <row r="14" s="4" customFormat="1" ht="192" customHeight="1" spans="1:2">
+      <c r="A14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="4" customFormat="1" ht="210" customHeight="1" spans="1:2">
+      <c r="A15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
+    <row r="17" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
+    <row r="18" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="140" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
+    <row r="20" s="4" customFormat="1" ht="140" customHeight="1" spans="1:2">
+      <c r="A20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="21" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
+    <row r="22" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="1" t="s">
+    <row r="23" s="4" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="24" s="4" customFormat="1" ht="152" customHeight="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2470,302 +2461,302 @@
   </cols>
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:3">
-      <c r="A1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="4"/>
+      <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" ht="145" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4"/>
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" ht="128" customHeight="1" spans="1:3">
-      <c r="A4" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="A4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" ht="136" customHeight="1" spans="1:3">
-      <c r="A5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" ht="143" customHeight="1" spans="1:3">
-      <c r="A6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" ht="172" customHeight="1" spans="1:3">
-      <c r="A7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="A7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:3">
-      <c r="A8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" ht="189" customHeight="1" spans="1:3">
-      <c r="A9" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:3">
-      <c r="A10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" ht="105" customHeight="1" spans="1:3">
-      <c r="A11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:3">
-      <c r="A12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" ht="134" customHeight="1" spans="1:3">
-      <c r="A13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" ht="170" customHeight="1" spans="1:3">
-      <c r="A14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" ht="154" customHeight="1" spans="1:3">
-      <c r="A15" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" ht="83" customHeight="1" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" ht="109" customHeight="1" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="1"/>
+      <c r="A17" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" ht="159" customHeight="1" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" s="1"/>
+      <c r="A18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" ht="157" customHeight="1" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="1"/>
+      <c r="A19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" ht="97" customHeight="1" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>85</v>
+      <c r="A20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="97" customHeight="1" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>87</v>
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="22" ht="97" customHeight="1" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>89</v>
+      <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="23" ht="106" customHeight="1" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>91</v>
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24" ht="106" customHeight="1" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>93</v>
+      <c r="A24" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25" ht="106" customHeight="1" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>95</v>
+      <c r="A25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="26" ht="106" customHeight="1" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>97</v>
+      <c r="A26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>99</v>
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>101</v>
+      <c r="A28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>103</v>
+      <c r="A29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>105</v>
+      <c r="A30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" ht="136" customHeight="1" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>107</v>
+      <c r="A31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32" ht="129" customHeight="1" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>109</v>
+      <c r="A32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" ht="136" customHeight="1" spans="1:2">
-      <c r="A33" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>111</v>
+      <c r="A33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34" ht="139" customHeight="1" spans="1:2">
-      <c r="A34" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>113</v>
+      <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:2">
       <c r="A35" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2786,264 +2777,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="71" style="3" customWidth="1"/>
-    <col min="2" max="2" width="132.558333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="71" style="1" customWidth="1"/>
+    <col min="2" max="2" width="132.558333333333" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="81" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>117</v>
+      <c r="A1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>119</v>
+      <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>121</v>
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:2">
-      <c r="A4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>123</v>
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>125</v>
+      <c r="A5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="6" ht="135" spans="1:2">
-      <c r="A6" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>127</v>
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="7" ht="135" spans="1:2">
-      <c r="A7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>129</v>
+      <c r="A7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="8" ht="162" spans="1:2">
-      <c r="A8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>131</v>
+      <c r="A8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:2">
-      <c r="A9" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>133</v>
+      <c r="A9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:2">
-      <c r="A10" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>135</v>
+      <c r="A10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>137</v>
+      <c r="A11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:2">
-      <c r="A12" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>139</v>
+      <c r="A12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="94.5" spans="1:2">
-      <c r="A13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>141</v>
+      <c r="A13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="14" ht="54" spans="1:2">
-      <c r="A14" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>143</v>
+      <c r="A14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="15" ht="94.5" spans="1:2">
-      <c r="A15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>145</v>
+      <c r="A15" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
-      <c r="A16" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>147</v>
+      <c r="A16" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="189" spans="1:2">
-      <c r="A17" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>149</v>
+      <c r="A17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:2">
-      <c r="A18" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>151</v>
+      <c r="A18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:2">
-      <c r="A19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>153</v>
+      <c r="A19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" ht="81" spans="1:2">
-      <c r="A20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>155</v>
+      <c r="A20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:2">
-      <c r="A21" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>157</v>
+      <c r="A21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>159</v>
+      <c r="A22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" ht="67.5" spans="1:2">
-      <c r="A23" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>161</v>
+      <c r="A23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:2">
-      <c r="A24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>163</v>
+      <c r="A24" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" ht="270" spans="1:2">
-      <c r="A25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>165</v>
+      <c r="A25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="26" ht="270" spans="1:2">
-      <c r="A26" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>167</v>
+      <c r="A26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="27" ht="283.5" spans="1:2">
-      <c r="A27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>169</v>
+      <c r="A27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="28" ht="256.5" spans="1:2">
-      <c r="A28" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>171</v>
+      <c r="A28" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="29" ht="81" spans="1:2">
-      <c r="A29" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>173</v>
+      <c r="A29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="30" ht="81" spans="1:2">
-      <c r="A30" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>175</v>
+      <c r="A30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="31" ht="108" spans="1:2">
-      <c r="A31" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>177</v>
+      <c r="A31" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="32" ht="108" spans="1:2">
-      <c r="A32" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>179</v>
+      <c r="A32" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -3056,195 +3047,18 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="79.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="114" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/本地play_UI _easySoftWare/test_cases/软件市场UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/软件市场UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22275" windowHeight="15975"/>
+    <workbookView windowWidth="13905" windowHeight="12885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1900,6 +1900,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -1907,12 +1913,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2234,206 +2234,206 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="41.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="128.891666666667" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="41.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="128.891666666667" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="131" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A4" s="4" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A6" s="4" t="s">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A7" s="4" t="s">
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A8" s="4" t="s">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="172" customHeight="1" spans="1:2">
-      <c r="A9" s="4" t="s">
+    <row r="9" s="1" customFormat="1" ht="172" customHeight="1" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="145" customHeight="1" spans="1:2">
-      <c r="A10" s="4" t="s">
+    <row r="10" s="1" customFormat="1" ht="145" customHeight="1" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="162" customHeight="1" spans="1:2">
-      <c r="A11" s="4" t="s">
+    <row r="11" s="1" customFormat="1" ht="162" customHeight="1" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="172" customHeight="1" spans="1:2">
-      <c r="A12" s="4" t="s">
+    <row r="12" s="1" customFormat="1" ht="172" customHeight="1" spans="1:2">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="176" customHeight="1" spans="1:2">
-      <c r="A13" s="4" t="s">
+    <row r="13" s="1" customFormat="1" ht="176" customHeight="1" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="192" customHeight="1" spans="1:2">
-      <c r="A14" s="4" t="s">
+    <row r="14" s="1" customFormat="1" ht="192" customHeight="1" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="210" customHeight="1" spans="1:2">
-      <c r="A15" s="4" t="s">
+    <row r="15" s="1" customFormat="1" ht="210" customHeight="1" spans="1:2">
+      <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A16" s="4" t="s">
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A17" s="4" t="s">
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A18" s="4" t="s">
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A19" s="4" t="s">
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="140" customHeight="1" spans="1:2">
-      <c r="A20" s="4" t="s">
+    <row r="20" s="1" customFormat="1" ht="140" customHeight="1" spans="1:2">
+      <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A21" s="4" t="s">
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A22" s="4" t="s">
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" customHeight="1" spans="1:2">
-      <c r="A23" s="4" t="s">
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:2">
+      <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" ht="152" customHeight="1" spans="1:2">
-      <c r="A24" s="4" t="s">
+    <row r="24" s="1" customFormat="1" ht="152" customHeight="1" spans="1:2">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2461,293 +2461,293 @@
   </cols>
   <sheetData>
     <row r="1" ht="126" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="2" ht="145" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" ht="145" customHeight="1" spans="1:3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" ht="128" customHeight="1" spans="1:3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" ht="136" customHeight="1" spans="1:3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" ht="143" customHeight="1" spans="1:3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" ht="172" customHeight="1" spans="1:3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" ht="159" customHeight="1" spans="1:3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" ht="189" customHeight="1" spans="1:3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" ht="121" customHeight="1" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" ht="105" customHeight="1" spans="1:3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" ht="134" customHeight="1" spans="1:3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" ht="170" customHeight="1" spans="1:3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" ht="154" customHeight="1" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" ht="83" customHeight="1" spans="1:3">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" ht="109" customHeight="1" spans="1:3">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" ht="159" customHeight="1" spans="1:3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" ht="157" customHeight="1" spans="1:3">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" ht="97" customHeight="1" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21" ht="97" customHeight="1" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="22" ht="97" customHeight="1" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" ht="106" customHeight="1" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="24" ht="106" customHeight="1" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" ht="106" customHeight="1" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="26" ht="106" customHeight="1" spans="1:2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="31" ht="136" customHeight="1" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="32" ht="129" customHeight="1" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33" ht="136" customHeight="1" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34" ht="139" customHeight="1" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>115</v>
       </c>
     </row>
@@ -2777,263 +2777,263 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="71" style="1" customWidth="1"/>
-    <col min="2" max="2" width="132.558333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="71" style="3" customWidth="1"/>
+    <col min="2" max="2" width="132.558333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="81" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="2" ht="94.5" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" ht="94.5" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" ht="108" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" ht="108" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="6" ht="135" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="7" ht="135" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="8" ht="162" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" ht="81" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="11" ht="67.5" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="12" ht="81" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="94.5" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="54" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="94.5" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="16" ht="135" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="189" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" ht="67.5" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" ht="81" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" ht="81" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="67.5" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="23" ht="67.5" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="24" ht="67.5" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="25" ht="270" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="26" ht="270" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="27" ht="283.5" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="28" ht="256.5" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="29" ht="81" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="30" ht="81" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="31" ht="108" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="32" ht="108" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3047,18 +3047,43 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="79.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="114" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="131" customHeight="1" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/本地play_UI _easySoftWare/test_cases/软件市场UI自动化测试用例.xlsx
+++ b/本地play_UI _easySoftWare/test_cases/软件市场UI自动化测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13905" windowHeight="12885" activeTab="3"/>
+    <workbookView windowWidth="23175" windowHeight="11625"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="183">
   <si>
     <t>测试案例名称</t>
   </si>
@@ -1259,6 +1259,10 @@
 删除机密变量
 删除当前空间
 退出登录</t>
+  </si>
+  <si>
+    <t>进入生产环境
+主页搜索(全部,mysql)</t>
   </si>
 </sst>
 </file>
@@ -2234,8 +2238,8 @@
   <sheetPr/>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="89" customHeight="1" outlineLevelCol="1"/>
@@ -2449,8 +2453,8 @@
   <sheetPr/>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="316" customHeight="1" outlineLevelCol="2"/>
@@ -3047,16 +3051,16 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="161" customHeight="1" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="79.1083333333333" customWidth="1"/>
-    <col min="2" max="2" width="114" customWidth="1"/>
+    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="23" customHeight="1" spans="1:2">
@@ -3072,15 +3076,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="89" customHeight="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
